--- a/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_4/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-66.33472831267576</v>
+        <v>-66.33472831267551</v>
       </c>
       <c r="H2" t="n">
         <v>187.0875719895377</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-83.60140968343896</v>
+        <v>-83.60140968343877</v>
       </c>
       <c r="H3" t="n">
-        <v>186.3967533089798</v>
+        <v>186.3967533089799</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>70.78127725946533</v>
+        <v>70.78127725946551</v>
       </c>
       <c r="H4" t="n">
-        <v>183.8036149018102</v>
+        <v>183.8036149018103</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>37.23710601338699</v>
+        <v>37.23710601338706</v>
       </c>
       <c r="H5" t="n">
-        <v>183.4582747194554</v>
+        <v>183.4582747194553</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>49.9231905323443</v>
+        <v>49.92319053234437</v>
       </c>
       <c r="H6" t="n">
-        <v>162.0398873438325</v>
+        <v>162.0398873438324</v>
       </c>
     </row>
     <row r="7">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>18.06224535203156</v>
+        <v>18.06224535203181</v>
       </c>
       <c r="H7" t="n">
         <v>165.4933321388234</v>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-21.96900418614585</v>
+        <v>-21.9690041861456</v>
       </c>
       <c r="H8" t="n">
-        <v>146.1235085874765</v>
+        <v>146.1235085874766</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-52.91497968351908</v>
+        <v>-52.9149796835189</v>
       </c>
       <c r="H9" t="n">
-        <v>144.9099131148107</v>
+        <v>144.9099131148108</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-3.607724457602</v>
+        <v>-3.607724457601825</v>
       </c>
       <c r="H10" t="n">
-        <v>142.9783729911404</v>
+        <v>142.9783729911405</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-63.51754393467814</v>
+        <v>-63.51754393467807</v>
       </c>
       <c r="H11" t="n">
         <v>142.2048460688988</v>
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>94.57414708467299</v>
+        <v>94.57414708467306</v>
       </c>
       <c r="H12" t="n">
-        <v>123.1775104401048</v>
+        <v>123.1775104401047</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>102.1754354166592</v>
+        <v>102.1754354166594</v>
       </c>
       <c r="H13" t="n">
-        <v>127.6052161139618</v>
+        <v>127.6052161139619</v>
       </c>
     </row>
     <row r="14">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>153.4463950248569</v>
+        <v>153.4463950248571</v>
       </c>
       <c r="H14" t="n">
         <v>112.2641937188498</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>128.413722044264</v>
+        <v>128.4137220442641</v>
       </c>
       <c r="H15" t="n">
-        <v>110.5310242970598</v>
+        <v>110.5310242970599</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>114.5250526196339</v>
+        <v>114.5250526196341</v>
       </c>
       <c r="H16" t="n">
-        <v>109.0334721395512</v>
+        <v>109.0334721395513</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>94.7371482986557</v>
+        <v>94.73714829865577</v>
       </c>
       <c r="H17" t="n">
-        <v>107.4447995848254</v>
+        <v>107.4447995848253</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>94.52679337577035</v>
+        <v>94.52679337577042</v>
       </c>
       <c r="H18" t="n">
-        <v>95.57106139379177</v>
+        <v>95.57106139379169</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>120.5649018786734</v>
+        <v>120.5649018786737</v>
       </c>
       <c r="H19" t="n">
-        <v>100.3736161441339</v>
+        <v>100.373616144134</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>153.5069958339236</v>
+        <v>153.5069958339238</v>
       </c>
       <c r="H20" t="n">
-        <v>94.72788129692589</v>
+        <v>94.72788129692594</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>132.8849137102643</v>
+        <v>132.8849137102645</v>
       </c>
       <c r="H21" t="n">
-        <v>92.76323061336127</v>
+        <v>92.76323061336142</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>109.9263350971257</v>
+        <v>109.9263350971259</v>
       </c>
       <c r="H22" t="n">
-        <v>91.02355946998206</v>
+        <v>91.0235594699822</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>94.5533636807604</v>
+        <v>94.55336368076047</v>
       </c>
       <c r="H23" t="n">
-        <v>89.11953546912119</v>
+        <v>89.11953546912112</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>95.64857572792954</v>
+        <v>95.64857572792918</v>
       </c>
       <c r="H24" t="n">
-        <v>98.6106912408944</v>
+        <v>98.61069124089413</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-20.35777743859549</v>
+        <v>-20.35777743859531</v>
       </c>
       <c r="H25" t="n">
-        <v>168.8916464782013</v>
+        <v>168.8916464782014</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>14.79597135546011</v>
+        <v>14.79597135546028</v>
       </c>
       <c r="H26" t="n">
-        <v>160.8798345624218</v>
+        <v>160.8798345624219</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>73.80492769467735</v>
+        <v>73.80492769467752</v>
       </c>
       <c r="H29" t="n">
-        <v>132.3756451131981</v>
+        <v>132.3756451131982</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>43.50884909784521</v>
+        <v>43.50884909784538</v>
       </c>
       <c r="H30" t="n">
-        <v>115.3517658128679</v>
+        <v>115.351765812868</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-76.87616844835512</v>
+        <v>-76.87616844835493</v>
       </c>
       <c r="H31" t="n">
-        <v>178.3108394412699</v>
+        <v>178.31083944127</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>76.91526942666098</v>
+        <v>76.91526942666063</v>
       </c>
       <c r="H33" t="n">
-        <v>158.8366132498438</v>
+        <v>158.8366132498436</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>11.50580172713278</v>
+        <v>11.50580172713243</v>
       </c>
       <c r="H34" t="n">
-        <v>117.4220577840723</v>
+        <v>117.4220577840721</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>136.4098368986163</v>
+        <v>136.4098368986165</v>
       </c>
       <c r="H36" t="n">
-        <v>117.2637844996739</v>
+        <v>117.263784499674</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-2.197188073050274</v>
+        <v>-2.197188073050622</v>
       </c>
       <c r="H37" t="n">
-        <v>131.3415928904104</v>
+        <v>131.3415928904102</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-56.88158183791108</v>
+        <v>-56.8815818379109</v>
       </c>
       <c r="H39" t="n">
         <v>172.8000532672966</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>119.2333020781485</v>
+        <v>119.2333020781484</v>
       </c>
       <c r="H40" t="n">
-        <v>97.64373642400777</v>
+        <v>97.64373642400756</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>89.55403408851265</v>
+        <v>89.55403408851282</v>
       </c>
       <c r="H42" t="n">
-        <v>155.6018298884466</v>
+        <v>155.6018298884467</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>100.9958537317195</v>
+        <v>100.9958537317191</v>
       </c>
       <c r="H44" t="n">
-        <v>91.8954223980315</v>
+        <v>91.89542239803122</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>120.9337868949359</v>
+        <v>120.933786894936</v>
       </c>
       <c r="H47" t="n">
-        <v>104.4662243396283</v>
+        <v>104.4662243396284</v>
       </c>
     </row>
     <row r="48">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>64.97515610084392</v>
+        <v>64.97515610084409</v>
       </c>
       <c r="H49" t="n">
         <v>137.6964460551497</v>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>103.576740760371</v>
+        <v>103.5767407603707</v>
       </c>
       <c r="H50" t="n">
-        <v>89.66298411250493</v>
+        <v>89.66298411250463</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>134.3431624218482</v>
+        <v>134.3431624218484</v>
       </c>
       <c r="H51" t="n">
-        <v>92.73880839512381</v>
+        <v>92.73880839512395</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-50.7692700038498</v>
+        <v>-50.76927000384998</v>
       </c>
       <c r="H52" t="n">
         <v>170.4812619764857</v>
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-68.33685351018939</v>
+        <v>-68.33685351018974</v>
       </c>
       <c r="H53" t="n">
-        <v>170.2225802597785</v>
+        <v>170.2225802597784</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>98.99712525563331</v>
+        <v>98.99712525563349</v>
       </c>
       <c r="H54" t="n">
-        <v>168.2452820303129</v>
+        <v>168.245282030313</v>
       </c>
     </row>
     <row r="55">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>-70.80234892212687</v>
+        <v>-70.80234892212705</v>
       </c>
       <c r="H57" t="n">
         <v>147.0967927939842</v>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>33.25391299191644</v>
+        <v>33.25391299191627</v>
       </c>
       <c r="H58" t="n">
-        <v>123.6431102758315</v>
+        <v>123.6431102758314</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>15.88479042325265</v>
+        <v>15.8847904232523</v>
       </c>
       <c r="H59" t="n">
-        <v>122.8971829341227</v>
+        <v>122.8971829341225</v>
       </c>
     </row>
     <row r="60">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>18.09594891001858</v>
+        <v>18.09594891001875</v>
       </c>
       <c r="H60" t="n">
         <v>122.2154613333919</v>
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>93.53580964956372</v>
+        <v>93.53580964956355</v>
       </c>
       <c r="H63" t="n">
-        <v>101.6395043252711</v>
+        <v>101.639504325271</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>90.9996621261717</v>
+        <v>90.99966212617151</v>
       </c>
       <c r="H64" t="n">
-        <v>81.48407935060921</v>
+        <v>81.48407935060911</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>72.25188721595066</v>
+        <v>72.2518872159503</v>
       </c>
       <c r="H65" t="n">
-        <v>80.42889615215191</v>
+        <v>80.42889615215172</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>93.22727144761873</v>
+        <v>93.2272714476189</v>
       </c>
       <c r="H66" t="n">
-        <v>79.49048685506844</v>
+        <v>79.49048685506854</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>100.4569113508956</v>
+        <v>100.4569113508954</v>
       </c>
       <c r="H69" t="n">
-        <v>65.01317749967977</v>
+        <v>65.01317749967964</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>149.0995143760332</v>
+        <v>149.0995143760331</v>
       </c>
       <c r="H70" t="n">
-        <v>54.93225465984742</v>
+        <v>54.93225465984727</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>138.9290065277217</v>
+        <v>138.9290065277214</v>
       </c>
       <c r="H71" t="n">
-        <v>53.53999555326712</v>
+        <v>53.53999555326683</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>119.1788872244383</v>
+        <v>119.1788872244385</v>
       </c>
       <c r="H72" t="n">
-        <v>52.19510752322273</v>
+        <v>52.19510752322287</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>128.5164983981293</v>
+        <v>128.5164983981296</v>
       </c>
       <c r="H74" t="n">
-        <v>88.18630960998307</v>
+        <v>88.18630960998323</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>100.8439941769219</v>
+        <v>100.8439941769221</v>
       </c>
       <c r="H75" t="n">
-        <v>49.93345446669248</v>
+        <v>49.93345446669262</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>139.5486749723715</v>
+        <v>139.5486749723713</v>
       </c>
       <c r="H76" t="n">
-        <v>53.05966465637513</v>
+        <v>53.05966465637476</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>74.7239131754186</v>
+        <v>74.72391317541896</v>
       </c>
       <c r="H77" t="n">
-        <v>51.49812582336828</v>
+        <v>51.49812582336858</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>-70.28808133954473</v>
+        <v>-70.28808133954509</v>
       </c>
       <c r="H78" t="n">
-        <v>155.9001172846013</v>
+        <v>155.9001172846012</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>105.0552887276338</v>
+        <v>105.0552887276336</v>
       </c>
       <c r="H79" t="n">
-        <v>154.5157261113631</v>
+        <v>154.515726111363</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>-68.72193226449276</v>
+        <v>-68.72193226449242</v>
       </c>
       <c r="H80" t="n">
-        <v>140.8820457734348</v>
+        <v>140.8820457734349</v>
       </c>
     </row>
     <row r="81">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>27.4464090388403</v>
+        <v>27.44640903884013</v>
       </c>
       <c r="H81" t="n">
         <v>131.5772482285176</v>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>12.56853835045277</v>
+        <v>12.56853835045295</v>
       </c>
       <c r="H82" t="n">
-        <v>90.93178007424928</v>
+        <v>90.93178007424936</v>
       </c>
     </row>
     <row r="83">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>66.36212060143414</v>
+        <v>66.36212060143433</v>
       </c>
       <c r="H83" t="n">
         <v>135.4843344578693</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>-62.04157979913502</v>
+        <v>-62.04157979913531</v>
       </c>
       <c r="H85" t="n">
-        <v>156.0727240900118</v>
+        <v>156.0727240900116</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.475050767937046</v>
+        <v>1.475050767937389</v>
       </c>
       <c r="H86" t="n">
-        <v>159.7143087771835</v>
+        <v>159.7143087771836</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.859718337374098</v>
+        <v>3.859718337373748</v>
       </c>
       <c r="H88" t="n">
-        <v>100.7956014489157</v>
+        <v>100.7956014489155</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>109.5666323585531</v>
+        <v>109.5666323585533</v>
       </c>
       <c r="H90" t="n">
-        <v>108.1419386329659</v>
+        <v>108.141938632966</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>9.574975956260529</v>
+        <v>9.574975956260248</v>
       </c>
       <c r="H91" t="n">
-        <v>114.4054354842575</v>
+        <v>114.4054354842573</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>119.161872947861</v>
+        <v>119.1618729478612</v>
       </c>
       <c r="H92" t="n">
-        <v>87.61214208003099</v>
+        <v>87.61214208003105</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>68.55338070844491</v>
+        <v>68.55338070844472</v>
       </c>
       <c r="H93" t="n">
-        <v>100.202167705232</v>
+        <v>100.2021677052319</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>102.2631897274246</v>
+        <v>102.2631897274245</v>
       </c>
       <c r="H94" t="n">
-        <v>59.21938351063157</v>
+        <v>59.21938351063145</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>84.25598308850179</v>
+        <v>84.25598308850151</v>
       </c>
       <c r="H95" t="n">
-        <v>59.03948538477294</v>
+        <v>59.0394853847726</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>129.1756891069001</v>
+        <v>129.1756891069004</v>
       </c>
       <c r="H96" t="n">
-        <v>55.75270975171852</v>
+        <v>55.75270975171879</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>106.96853129566</v>
+        <v>106.9685312956602</v>
       </c>
       <c r="H97" t="n">
-        <v>75.36570058209287</v>
+        <v>75.36570058209296</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>149.097586527143</v>
+        <v>149.0975865271427</v>
       </c>
       <c r="H99" t="n">
-        <v>70.48624200747524</v>
+        <v>70.48624200747496</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>84.03907413436853</v>
+        <v>84.03907413436889</v>
       </c>
       <c r="H100" t="n">
-        <v>62.86558289567702</v>
+        <v>62.86558289567725</v>
       </c>
     </row>
     <row r="101">
